--- a/Jogos_do_Dia/2024-04-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -265,12 +265,12 @@
     <t>Lugano</t>
   </si>
   <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
     <t>AFC Bournemouth</t>
   </si>
   <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
     <t>Burnley</t>
   </si>
   <si>
@@ -334,10 +334,10 @@
     <t>Basel</t>
   </si>
   <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
     <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
   </si>
   <si>
     <t>Wolverhampton Wanderers</t>
@@ -877,13 +877,13 @@
         <v>2.75</v>
       </c>
       <c r="J2">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="K2">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="M2">
         <v>1.33</v>
@@ -904,10 +904,10 @@
         <v>3.8</v>
       </c>
       <c r="S2">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="T2">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="U2">
         <v>1.62</v>
@@ -1008,13 +1008,13 @@
         <v>2.5</v>
       </c>
       <c r="J3">
-        <v>4.39</v>
+        <v>4.2</v>
       </c>
       <c r="K3">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="L3">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="M3">
         <v>1.48</v>
@@ -1035,7 +1035,7 @@
         <v>2.8</v>
       </c>
       <c r="S3">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="T3">
         <v>1.61</v>
@@ -1139,13 +1139,13 @@
         <v>2.7</v>
       </c>
       <c r="J4">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="K4">
         <v>3.3</v>
       </c>
       <c r="L4">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="M4">
         <v>1.38</v>
@@ -1166,7 +1166,7 @@
         <v>3.3</v>
       </c>
       <c r="S4">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T4">
         <v>1.85</v>
@@ -1270,13 +1270,13 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L5">
-        <v>5.72</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>1.43</v>
@@ -1297,10 +1297,10 @@
         <v>3.1</v>
       </c>
       <c r="S5">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U5">
         <v>2.05</v>
@@ -1401,13 +1401,13 @@
         <v>3.6</v>
       </c>
       <c r="J6">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="K6">
         <v>3.3</v>
       </c>
       <c r="L6">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>1.38</v>
@@ -1428,7 +1428,7 @@
         <v>3.3</v>
       </c>
       <c r="S6">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T6">
         <v>1.85</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>3.2</v>
       </c>
       <c r="J7">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="K7">
         <v>3.5</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M7">
         <v>1.33</v>
@@ -1559,10 +1559,10 @@
         <v>4.08</v>
       </c>
       <c r="S7">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="T7">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="U7">
         <v>1.62</v>
@@ -1663,13 +1663,13 @@
         <v>4.5</v>
       </c>
       <c r="J8">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
         <v>1.44</v>
@@ -1693,7 +1693,7 @@
         <v>2.1</v>
       </c>
       <c r="T8">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U8">
         <v>1.95</v>
@@ -1794,13 +1794,13 @@
         <v>3.25</v>
       </c>
       <c r="J9">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="K9">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>2.39</v>
+        <v>2.63</v>
       </c>
       <c r="M9">
         <v>1.5</v>
@@ -1821,10 +1821,10 @@
         <v>2.75</v>
       </c>
       <c r="S9">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T9">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="U9">
         <v>1.95</v>
@@ -1925,13 +1925,13 @@
         <v>4.75</v>
       </c>
       <c r="J10">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="K10">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>4.11</v>
+        <v>4.4</v>
       </c>
       <c r="M10">
         <v>1.42</v>
@@ -1952,10 +1952,10 @@
         <v>3</v>
       </c>
       <c r="S10">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="T10">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="U10">
         <v>1.91</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>3.6</v>
       </c>
       <c r="J11">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="K11">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -2083,10 +2083,10 @@
         <v>3.33</v>
       </c>
       <c r="S11">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="T11">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U11">
         <v>1.73</v>
@@ -2187,13 +2187,13 @@
         <v>4.33</v>
       </c>
       <c r="J12">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
-        <v>4.39</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
         <v>1.44</v>
@@ -2214,10 +2214,10 @@
         <v>2.96</v>
       </c>
       <c r="S12">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U12">
         <v>1.91</v>
@@ -2318,13 +2318,13 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="K13">
-        <v>7.79</v>
+        <v>7.5</v>
       </c>
       <c r="L13">
-        <v>12.72</v>
+        <v>15</v>
       </c>
       <c r="M13">
         <v>1.22</v>
@@ -2345,10 +2345,10 @@
         <v>6.89</v>
       </c>
       <c r="S13">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.94</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2449,13 +2449,13 @@
         <v>1.44</v>
       </c>
       <c r="J14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K14">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L14">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="M14">
         <v>1.17</v>
@@ -2476,10 +2476,10 @@
         <v>10</v>
       </c>
       <c r="S14">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="T14">
-        <v>3.64</v>
+        <v>3.71</v>
       </c>
       <c r="U14">
         <v>1.95</v>
@@ -2580,7 +2580,7 @@
         <v>4.75</v>
       </c>
       <c r="J15">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K15">
         <v>3.6</v>
@@ -2607,10 +2607,10 @@
         <v>3.73</v>
       </c>
       <c r="S15">
+        <v>1.75</v>
+      </c>
+      <c r="T15">
         <v>1.85</v>
-      </c>
-      <c r="T15">
-        <v>1.95</v>
       </c>
       <c r="U15">
         <v>1.83</v>
@@ -2643,43 +2643,43 @@
         <v>3</v>
       </c>
       <c r="AE15">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AF15">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="AG15">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="AH15">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AI15">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="AJ15">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AK15">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AL15">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="AM15">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="AN15">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="AO15">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AP15">
-        <v>2.71</v>
+        <v>2.78</v>
       </c>
       <c r="AQ15">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2711,13 +2711,13 @@
         <v>3.25</v>
       </c>
       <c r="J16">
-        <v>2.41</v>
+        <v>2.63</v>
       </c>
       <c r="K16">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="L16">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="M16">
         <v>1.4</v>
@@ -2738,10 +2738,10 @@
         <v>3.5</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U16">
         <v>1.75</v>
@@ -2842,13 +2842,13 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K17">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="L17">
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="M17">
         <v>1.29</v>
@@ -2869,10 +2869,10 @@
         <v>5</v>
       </c>
       <c r="S17">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T17">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="U17">
         <v>1.53</v>
@@ -2973,13 +2973,13 @@
         <v>3.8</v>
       </c>
       <c r="J18">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="K18">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
-        <v>3.42</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
         <v>1.33</v>
@@ -3000,10 +3000,10 @@
         <v>3.75</v>
       </c>
       <c r="S18">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="T18">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="U18">
         <v>1.62</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
         <v>45384</v>
@@ -3086,7 +3086,7 @@
         <v>63</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
@@ -3095,120 +3095,120 @@
         <v>106</v>
       </c>
       <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>2.25</v>
+      </c>
+      <c r="I19">
+        <v>2.6</v>
+      </c>
+      <c r="J19">
+        <v>3.4</v>
+      </c>
+      <c r="K19">
+        <v>3.5</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1.36</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <v>1.25</v>
+      </c>
+      <c r="R19">
+        <v>3.75</v>
+      </c>
+      <c r="S19">
+        <v>1.8</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>1.67</v>
+      </c>
+      <c r="V19">
+        <v>2.1</v>
+      </c>
+      <c r="W19">
+        <v>1.87</v>
+      </c>
+      <c r="X19">
+        <v>1.22</v>
+      </c>
+      <c r="Y19">
+        <v>1.28</v>
+      </c>
+      <c r="Z19">
+        <v>1.68</v>
+      </c>
+      <c r="AA19">
+        <v>1.4</v>
+      </c>
+      <c r="AB19">
+        <v>1.34</v>
+      </c>
+      <c r="AC19">
+        <v>1.41</v>
+      </c>
+      <c r="AD19">
+        <v>2.75</v>
+      </c>
+      <c r="AE19">
+        <v>2.65</v>
+      </c>
+      <c r="AF19">
+        <v>7</v>
+      </c>
+      <c r="AG19">
+        <v>1.69</v>
+      </c>
+      <c r="AH19">
+        <v>1.17</v>
+      </c>
+      <c r="AI19">
+        <v>4.4</v>
+      </c>
+      <c r="AJ19">
+        <v>1.29</v>
+      </c>
+      <c r="AK19">
+        <v>3.3</v>
+      </c>
+      <c r="AL19">
+        <v>1.53</v>
+      </c>
+      <c r="AM19">
+        <v>2.33</v>
+      </c>
+      <c r="AN19">
+        <v>1.94</v>
+      </c>
+      <c r="AO19">
+        <v>1.77</v>
+      </c>
+      <c r="AP19">
         <v>2.5</v>
       </c>
-      <c r="H19">
-        <v>2.3</v>
-      </c>
-      <c r="I19">
-        <v>4.33</v>
-      </c>
-      <c r="J19">
-        <v>1.83</v>
-      </c>
-      <c r="K19">
-        <v>3.78</v>
-      </c>
-      <c r="L19">
-        <v>3.95</v>
-      </c>
-      <c r="M19">
-        <v>1.33</v>
-      </c>
-      <c r="N19">
-        <v>3.25</v>
-      </c>
-      <c r="O19">
-        <v>1.04</v>
-      </c>
-      <c r="P19">
-        <v>14</v>
-      </c>
-      <c r="Q19">
-        <v>1.24</v>
-      </c>
-      <c r="R19">
-        <v>4.25</v>
-      </c>
-      <c r="S19">
-        <v>1.76</v>
-      </c>
-      <c r="T19">
-        <v>2.06</v>
-      </c>
-      <c r="U19">
-        <v>1.62</v>
-      </c>
-      <c r="V19">
-        <v>2.2</v>
-      </c>
-      <c r="W19">
-        <v>1.27</v>
-      </c>
-      <c r="X19">
-        <v>1.26</v>
-      </c>
-      <c r="Y19">
-        <v>1.97</v>
-      </c>
-      <c r="Z19">
-        <v>1.33</v>
-      </c>
-      <c r="AA19">
-        <v>0.93</v>
-      </c>
-      <c r="AB19">
-        <v>1.51</v>
-      </c>
-      <c r="AC19">
-        <v>1.15</v>
-      </c>
-      <c r="AD19">
-        <v>2.66</v>
-      </c>
-      <c r="AE19">
-        <v>1.61</v>
-      </c>
-      <c r="AF19">
-        <v>8</v>
-      </c>
-      <c r="AG19">
-        <v>2.7</v>
-      </c>
-      <c r="AH19">
-        <v>1.2</v>
-      </c>
-      <c r="AI19">
-        <v>3.7</v>
-      </c>
-      <c r="AJ19">
-        <v>1.38</v>
-      </c>
-      <c r="AK19">
-        <v>2.65</v>
-      </c>
-      <c r="AL19">
-        <v>1.66</v>
-      </c>
-      <c r="AM19">
-        <v>2.06</v>
-      </c>
-      <c r="AN19">
-        <v>2.06</v>
-      </c>
-      <c r="AO19">
-        <v>1.66</v>
-      </c>
-      <c r="AP19">
-        <v>2.63</v>
-      </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>45384</v>
@@ -3217,7 +3217,7 @@
         <v>63</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>84</v>
@@ -3226,115 +3226,115 @@
         <v>107</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H20">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I20">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="J20">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="K20">
+        <v>3.75</v>
+      </c>
+      <c r="L20">
+        <v>3.9</v>
+      </c>
+      <c r="M20">
+        <v>1.33</v>
+      </c>
+      <c r="N20">
+        <v>3.25</v>
+      </c>
+      <c r="O20">
+        <v>1.04</v>
+      </c>
+      <c r="P20">
+        <v>14</v>
+      </c>
+      <c r="Q20">
+        <v>1.24</v>
+      </c>
+      <c r="R20">
+        <v>4.25</v>
+      </c>
+      <c r="S20">
+        <v>1.67</v>
+      </c>
+      <c r="T20">
+        <v>2.1</v>
+      </c>
+      <c r="U20">
+        <v>1.62</v>
+      </c>
+      <c r="V20">
+        <v>2.2</v>
+      </c>
+      <c r="W20">
+        <v>1.27</v>
+      </c>
+      <c r="X20">
+        <v>1.26</v>
+      </c>
+      <c r="Y20">
+        <v>1.97</v>
+      </c>
+      <c r="Z20">
+        <v>1.33</v>
+      </c>
+      <c r="AA20">
+        <v>0.93</v>
+      </c>
+      <c r="AB20">
+        <v>1.51</v>
+      </c>
+      <c r="AC20">
+        <v>1.15</v>
+      </c>
+      <c r="AD20">
+        <v>2.66</v>
+      </c>
+      <c r="AE20">
+        <v>1.61</v>
+      </c>
+      <c r="AF20">
+        <v>8</v>
+      </c>
+      <c r="AG20">
+        <v>2.7</v>
+      </c>
+      <c r="AH20">
+        <v>1.2</v>
+      </c>
+      <c r="AI20">
         <v>3.7</v>
       </c>
-      <c r="L20">
-        <v>1.92</v>
-      </c>
-      <c r="M20">
-        <v>1.36</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>1.03</v>
-      </c>
-      <c r="P20">
-        <v>13</v>
-      </c>
-      <c r="Q20">
-        <v>1.25</v>
-      </c>
-      <c r="R20">
-        <v>3.75</v>
-      </c>
-      <c r="S20">
-        <v>1.75</v>
-      </c>
-      <c r="T20">
-        <v>1.98</v>
-      </c>
-      <c r="U20">
-        <v>1.67</v>
-      </c>
-      <c r="V20">
-        <v>2.1</v>
-      </c>
-      <c r="W20">
-        <v>1.87</v>
-      </c>
-      <c r="X20">
-        <v>1.22</v>
-      </c>
-      <c r="Y20">
-        <v>1.28</v>
-      </c>
-      <c r="Z20">
-        <v>1.68</v>
-      </c>
-      <c r="AA20">
-        <v>1.4</v>
-      </c>
-      <c r="AB20">
-        <v>1.34</v>
-      </c>
-      <c r="AC20">
-        <v>1.41</v>
-      </c>
-      <c r="AD20">
-        <v>2.75</v>
-      </c>
-      <c r="AE20">
+      <c r="AJ20">
+        <v>1.38</v>
+      </c>
+      <c r="AK20">
         <v>2.65</v>
       </c>
-      <c r="AF20">
-        <v>7</v>
-      </c>
-      <c r="AG20">
-        <v>1.69</v>
-      </c>
-      <c r="AH20">
-        <v>1.17</v>
-      </c>
-      <c r="AI20">
-        <v>4.4</v>
-      </c>
-      <c r="AJ20">
-        <v>1.29</v>
-      </c>
-      <c r="AK20">
-        <v>3.3</v>
-      </c>
       <c r="AL20">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="AM20">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AN20">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="AO20">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AQ20">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3366,13 +3366,13 @@
         <v>3</v>
       </c>
       <c r="J21">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="K21">
-        <v>3.39</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="M21">
         <v>1.33</v>
@@ -3393,10 +3393,10 @@
         <v>4.05</v>
       </c>
       <c r="S21">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="T21">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U21">
         <v>1.62</v>
@@ -3500,10 +3500,10 @@
         <v>2.1</v>
       </c>
       <c r="K22">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
         <v>1.44</v>
@@ -3524,10 +3524,10 @@
         <v>3.2</v>
       </c>
       <c r="S22">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="U22">
         <v>1.8</v>
@@ -3628,13 +3628,13 @@
         <v>3.2</v>
       </c>
       <c r="J23">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K23">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L23">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M23">
         <v>1.3</v>
@@ -3655,10 +3655,10 @@
         <v>4.45</v>
       </c>
       <c r="S23">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="T23">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="U23">
         <v>1.53</v>
@@ -3759,10 +3759,10 @@
         <v>2.6</v>
       </c>
       <c r="J24">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="K24">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L24">
         <v>2.1</v>
@@ -3786,10 +3786,10 @@
         <v>6.4</v>
       </c>
       <c r="S24">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T24">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="U24">
         <v>1.4</v>

--- a/Jogos_do_Dia/2024-04-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -157,12 +157,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
     <t>Switzerland Challenge League</t>
   </si>
   <si>
@@ -232,13 +232,16 @@
     <t>Vitesse</t>
   </si>
   <si>
+    <t>Warta Poznań</t>
+  </si>
+  <si>
+    <t>Železničar Pančevo</t>
+  </si>
+  <si>
     <t>OB</t>
   </si>
   <si>
-    <t>Warta Poznań</t>
-  </si>
-  <si>
-    <t>Železničar Pančevo</t>
+    <t>Galatasaray</t>
   </si>
   <si>
     <t>Gazişehir Gaziantep</t>
@@ -247,9 +250,6 @@
     <t>Antalyaspor</t>
   </si>
   <si>
-    <t>Galatasaray</t>
-  </si>
-  <si>
     <t>Excelsior</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>Burnley</t>
   </si>
   <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
     <t>Portsmouth</t>
   </si>
   <si>
-    <t>Fortuna Sittard</t>
-  </si>
-  <si>
     <t>West Ham United</t>
   </si>
   <si>
@@ -301,13 +301,16 @@
     <t>Sparta Rotterdam</t>
   </si>
   <si>
+    <t>Zagłębie Lubin</t>
+  </si>
+  <si>
+    <t>Radnik Surdulica</t>
+  </si>
+  <si>
     <t>Vejle</t>
   </si>
   <si>
-    <t>Zagłębie Lubin</t>
-  </si>
-  <si>
-    <t>Radnik Surdulica</t>
+    <t>Hatayspor</t>
   </si>
   <si>
     <t>Alanyaspor</t>
@@ -316,9 +319,6 @@
     <t>Ankaragücü</t>
   </si>
   <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
     <t>PSV</t>
   </si>
   <si>
@@ -343,10 +343,10 @@
     <t>Wolverhampton Wanderers</t>
   </si>
   <si>
+    <t>NEC</t>
+  </si>
+  <si>
     <t>Derby County</t>
-  </si>
-  <si>
-    <t>NEC</t>
   </si>
   <si>
     <t>Tottenham Hotspur</t>
@@ -925,10 +925,10 @@
         <v>1.28</v>
       </c>
       <c r="Z2">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA2">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
         <v>1.23</v>
@@ -1056,10 +1056,10 @@
         <v>1.17</v>
       </c>
       <c r="Z3">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AA3">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AB3">
         <v>1.26</v>
@@ -1139,13 +1139,13 @@
         <v>2.7</v>
       </c>
       <c r="J4">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="K4">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="L4">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="M4">
         <v>1.38</v>
@@ -1187,10 +1187,10 @@
         <v>1.33</v>
       </c>
       <c r="Z4">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AA4">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AB4">
         <v>1.57</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1270,13 +1270,13 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M5">
         <v>1.43</v>
@@ -1297,10 +1297,10 @@
         <v>3.1</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U5">
         <v>2.05</v>
@@ -1318,10 +1318,10 @@
         <v>2.3</v>
       </c>
       <c r="Z5">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AA5">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AB5">
         <v>1.3</v>
@@ -1401,13 +1401,13 @@
         <v>3.6</v>
       </c>
       <c r="J6">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="K6">
         <v>3.3</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="M6">
         <v>1.38</v>
@@ -1449,10 +1449,10 @@
         <v>1.62</v>
       </c>
       <c r="Z6">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AB6">
         <v>1.84</v>
@@ -1532,13 +1532,13 @@
         <v>3.2</v>
       </c>
       <c r="J7">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L7">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="M7">
         <v>1.33</v>
@@ -1559,10 +1559,10 @@
         <v>4.08</v>
       </c>
       <c r="S7">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="U7">
         <v>1.62</v>
@@ -1580,10 +1580,10 @@
         <v>1.58</v>
       </c>
       <c r="Z7">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AA7">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AB7">
         <v>1.49</v>
@@ -1645,7 +1645,7 @@
         <v>58</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>72</v>
@@ -1654,46 +1654,46 @@
         <v>95</v>
       </c>
       <c r="G8">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="H8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="J8">
-        <v>1.83</v>
+        <v>2.58</v>
       </c>
       <c r="K8">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="L8">
-        <v>3.8</v>
+        <v>2.76</v>
       </c>
       <c r="M8">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="O8">
         <v>1.06</v>
       </c>
       <c r="P8">
-        <v>9.35</v>
+        <v>7</v>
       </c>
       <c r="Q8">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="R8">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="S8">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="T8">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U8">
         <v>1.95</v>
@@ -1702,72 +1702,72 @@
         <v>1.8</v>
       </c>
       <c r="W8">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="X8">
         <v>1.28</v>
       </c>
       <c r="Y8">
-        <v>1.87</v>
+        <v>1.4</v>
       </c>
       <c r="Z8">
-        <v>0.27</v>
+        <v>0.85</v>
       </c>
       <c r="AA8">
-        <v>0.64</v>
+        <v>1.15</v>
       </c>
       <c r="AB8">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="AC8">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="AD8">
-        <v>2.47</v>
+        <v>2.71</v>
       </c>
       <c r="AE8">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="AF8">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG8">
-        <v>3.16</v>
+        <v>1.85</v>
       </c>
       <c r="AH8">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AI8">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ8">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AK8">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="AL8">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AM8">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AN8">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AO8">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AP8">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2">
         <v>45384</v>
@@ -1776,7 +1776,7 @@
         <v>58</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>73</v>
@@ -1785,120 +1785,120 @@
         <v>96</v>
       </c>
       <c r="G9">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I9">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="J9">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="K9">
+        <v>3.35</v>
+      </c>
+      <c r="L9">
+        <v>4.42</v>
+      </c>
+      <c r="M9">
+        <v>1.42</v>
+      </c>
+      <c r="N9">
+        <v>2.62</v>
+      </c>
+      <c r="O9">
+        <v>1.05</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>1.33</v>
+      </c>
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>2.63</v>
-      </c>
-      <c r="M9">
-        <v>1.5</v>
-      </c>
-      <c r="N9">
-        <v>2.5</v>
-      </c>
-      <c r="O9">
-        <v>1.06</v>
-      </c>
-      <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <v>1.42</v>
-      </c>
-      <c r="R9">
-        <v>2.75</v>
-      </c>
       <c r="S9">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="T9">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V9">
         <v>1.8</v>
       </c>
       <c r="W9">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="X9">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Y9">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="Z9">
-        <v>0.83</v>
+        <v>1.21</v>
       </c>
       <c r="AA9">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AB9">
-        <v>1.16</v>
+        <v>1.61</v>
       </c>
       <c r="AC9">
-        <v>1.55</v>
+        <v>0.84</v>
       </c>
       <c r="AD9">
-        <v>2.71</v>
+        <v>2.45</v>
       </c>
       <c r="AE9">
-        <v>2.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF9">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG9">
+        <v>4.1</v>
+      </c>
+      <c r="AH9">
+        <v>1.35</v>
+      </c>
+      <c r="AI9">
+        <v>2.84</v>
+      </c>
+      <c r="AJ9">
+        <v>1.95</v>
+      </c>
+      <c r="AK9">
         <v>1.85</v>
       </c>
-      <c r="AH9">
-        <v>1.23</v>
-      </c>
-      <c r="AI9">
-        <v>3.5</v>
-      </c>
-      <c r="AJ9">
-        <v>1.43</v>
-      </c>
-      <c r="AK9">
-        <v>2.48</v>
-      </c>
       <c r="AL9">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AM9">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="AN9">
-        <v>2.25</v>
+        <v>2.79</v>
       </c>
       <c r="AO9">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="AQ9">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>45384</v>
@@ -1907,7 +1907,7 @@
         <v>58</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
@@ -1916,115 +1916,115 @@
         <v>97</v>
       </c>
       <c r="G10">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="H10">
         <v>2.1</v>
       </c>
       <c r="I10">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J10">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="L10">
         <v>4.4</v>
       </c>
       <c r="M10">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="N10">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="O10">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>9.35</v>
       </c>
       <c r="Q10">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="S10">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="T10">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="U10">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
         <v>1.8</v>
       </c>
       <c r="W10">
+        <v>1.26</v>
+      </c>
+      <c r="X10">
+        <v>1.28</v>
+      </c>
+      <c r="Y10">
+        <v>1.87</v>
+      </c>
+      <c r="Z10">
+        <v>0.25</v>
+      </c>
+      <c r="AA10">
+        <v>0.83</v>
+      </c>
+      <c r="AB10">
+        <v>1.37</v>
+      </c>
+      <c r="AC10">
+        <v>1.1</v>
+      </c>
+      <c r="AD10">
+        <v>2.47</v>
+      </c>
+      <c r="AE10">
+        <v>1.51</v>
+      </c>
+      <c r="AF10">
+        <v>8.5</v>
+      </c>
+      <c r="AG10">
+        <v>3.16</v>
+      </c>
+      <c r="AH10">
         <v>1.22</v>
       </c>
-      <c r="X10">
-        <v>1.3</v>
-      </c>
-      <c r="Y10">
-        <v>1.95</v>
-      </c>
-      <c r="Z10">
-        <v>1.08</v>
-      </c>
-      <c r="AA10">
-        <v>0.54</v>
-      </c>
-      <c r="AB10">
-        <v>1.61</v>
-      </c>
-      <c r="AC10">
-        <v>0.84</v>
-      </c>
-      <c r="AD10">
-        <v>2.45</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AJ10">
-        <v>1.95</v>
+        <v>1.42</v>
       </c>
       <c r="AK10">
-        <v>1.85</v>
+        <v>2.63</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2047,115 +2047,115 @@
         <v>98</v>
       </c>
       <c r="G11">
+        <v>1.57</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="H11">
-        <v>2.1</v>
-      </c>
       <c r="I11">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>2.3</v>
+        <v>1.19</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>7.2</v>
       </c>
       <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>1.22</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>1.01</v>
+      </c>
+      <c r="P11">
+        <v>26</v>
+      </c>
+      <c r="Q11">
+        <v>1.09</v>
+      </c>
+      <c r="R11">
+        <v>6.89</v>
+      </c>
+      <c r="S11">
+        <v>1.37</v>
+      </c>
+      <c r="T11">
+        <v>2.94</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1.73</v>
+      </c>
+      <c r="W11">
+        <v>1.04</v>
+      </c>
+      <c r="X11">
+        <v>1.11</v>
+      </c>
+      <c r="Y11">
+        <v>5.5</v>
+      </c>
+      <c r="Z11">
         <v>3</v>
       </c>
-      <c r="M11">
-        <v>1.4</v>
-      </c>
-      <c r="N11">
-        <v>2.75</v>
-      </c>
-      <c r="O11">
-        <v>1.04</v>
-      </c>
-      <c r="P11">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q11">
-        <v>1.31</v>
-      </c>
-      <c r="R11">
+      <c r="AA11">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>2.2</v>
+      </c>
+      <c r="AC11">
+        <v>1.13</v>
+      </c>
+      <c r="AD11">
         <v>3.33</v>
       </c>
-      <c r="S11">
-        <v>1.91</v>
-      </c>
-      <c r="T11">
+      <c r="AE11">
+        <v>1.08</v>
+      </c>
+      <c r="AF11">
+        <v>15.5</v>
+      </c>
+      <c r="AG11">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH11">
+        <v>1.2</v>
+      </c>
+      <c r="AI11">
+        <v>3.84</v>
+      </c>
+      <c r="AJ11">
+        <v>1.39</v>
+      </c>
+      <c r="AK11">
+        <v>2.67</v>
+      </c>
+      <c r="AL11">
+        <v>1.6</v>
+      </c>
+      <c r="AM11">
+        <v>2.2</v>
+      </c>
+      <c r="AN11">
+        <v>1.97</v>
+      </c>
+      <c r="AO11">
         <v>1.75</v>
       </c>
-      <c r="U11">
-        <v>1.73</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>1.42</v>
-      </c>
-      <c r="X11">
-        <v>1.35</v>
-      </c>
-      <c r="Y11">
-        <v>1.65</v>
-      </c>
-      <c r="Z11">
-        <v>1.13</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <v>1.18</v>
-      </c>
-      <c r="AC11">
-        <v>1.21</v>
-      </c>
-      <c r="AD11">
-        <v>2.39</v>
-      </c>
-      <c r="AE11">
-        <v>1.8</v>
-      </c>
-      <c r="AF11">
-        <v>9</v>
-      </c>
-      <c r="AG11">
-        <v>2.34</v>
-      </c>
-      <c r="AH11">
-        <v>1.24</v>
-      </c>
-      <c r="AI11">
-        <v>3.48</v>
-      </c>
-      <c r="AJ11">
-        <v>1.5</v>
-      </c>
-      <c r="AK11">
-        <v>2.4</v>
-      </c>
-      <c r="AL11">
-        <v>1.8</v>
-      </c>
-      <c r="AM11">
-        <v>1.9</v>
-      </c>
-      <c r="AN11">
-        <v>2.25</v>
-      </c>
-      <c r="AO11">
-        <v>1.57</v>
-      </c>
       <c r="AP11">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="AQ11">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2178,115 +2178,115 @@
         <v>99</v>
       </c>
       <c r="G12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I12">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="K12">
         <v>3.25</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>2.94</v>
       </c>
       <c r="M12">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N12">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O12">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P12">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q12">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="R12">
-        <v>2.96</v>
+        <v>3.33</v>
       </c>
       <c r="S12">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T12">
+        <v>1.78</v>
+      </c>
+      <c r="U12">
+        <v>1.73</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>1.42</v>
+      </c>
+      <c r="X12">
+        <v>1.35</v>
+      </c>
+      <c r="Y12">
         <v>1.65</v>
       </c>
-      <c r="U12">
-        <v>1.91</v>
-      </c>
-      <c r="V12">
+      <c r="Z12">
+        <v>1.06</v>
+      </c>
+      <c r="AA12">
+        <v>1.13</v>
+      </c>
+      <c r="AB12">
+        <v>1.18</v>
+      </c>
+      <c r="AC12">
+        <v>1.21</v>
+      </c>
+      <c r="AD12">
+        <v>2.39</v>
+      </c>
+      <c r="AE12">
         <v>1.8</v>
       </c>
-      <c r="W12">
+      <c r="AF12">
+        <v>9</v>
+      </c>
+      <c r="AG12">
+        <v>2.34</v>
+      </c>
+      <c r="AH12">
+        <v>1.24</v>
+      </c>
+      <c r="AI12">
+        <v>3.48</v>
+      </c>
+      <c r="AJ12">
+        <v>1.5</v>
+      </c>
+      <c r="AK12">
+        <v>2.4</v>
+      </c>
+      <c r="AL12">
+        <v>1.8</v>
+      </c>
+      <c r="AM12">
+        <v>1.9</v>
+      </c>
+      <c r="AN12">
+        <v>2.25</v>
+      </c>
+      <c r="AO12">
+        <v>1.57</v>
+      </c>
+      <c r="AP12">
+        <v>3.08</v>
+      </c>
+      <c r="AQ12">
         <v>1.3</v>
-      </c>
-      <c r="X12">
-        <v>1.36</v>
-      </c>
-      <c r="Y12">
-        <v>1.83</v>
-      </c>
-      <c r="Z12">
-        <v>1.67</v>
-      </c>
-      <c r="AA12">
-        <v>0.79</v>
-      </c>
-      <c r="AB12">
-        <v>1.5</v>
-      </c>
-      <c r="AC12">
-        <v>1.06</v>
-      </c>
-      <c r="AD12">
-        <v>2.56</v>
-      </c>
-      <c r="AE12">
-        <v>1.51</v>
-      </c>
-      <c r="AF12">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG12">
-        <v>3.1</v>
-      </c>
-      <c r="AH12">
-        <v>1.28</v>
-      </c>
-      <c r="AI12">
-        <v>3.18</v>
-      </c>
-      <c r="AJ12">
-        <v>1.6</v>
-      </c>
-      <c r="AK12">
-        <v>2.2</v>
-      </c>
-      <c r="AL12">
-        <v>1.95</v>
-      </c>
-      <c r="AM12">
-        <v>1.77</v>
-      </c>
-      <c r="AN12">
-        <v>2.5</v>
-      </c>
-      <c r="AO12">
-        <v>1.47</v>
-      </c>
-      <c r="AP12">
-        <v>3.42</v>
-      </c>
-      <c r="AQ12">
-        <v>1.25</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2309,115 +2309,115 @@
         <v>100</v>
       </c>
       <c r="G13">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>4.33</v>
       </c>
       <c r="J13">
-        <v>1.14</v>
+        <v>1.93</v>
       </c>
       <c r="K13">
-        <v>7.5</v>
+        <v>3.35</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>4.1</v>
       </c>
       <c r="M13">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="O13">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P13">
-        <v>26</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q13">
-        <v>1.09</v>
+        <v>1.38</v>
       </c>
       <c r="R13">
-        <v>6.89</v>
+        <v>2.96</v>
       </c>
       <c r="S13">
-        <v>1.37</v>
+        <v>2.07</v>
       </c>
       <c r="T13">
-        <v>2.94</v>
+        <v>1.67</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V13">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="X13">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="Y13">
-        <v>5.5</v>
+        <v>1.83</v>
       </c>
       <c r="Z13">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="AA13">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
+        <v>1.5</v>
+      </c>
+      <c r="AC13">
+        <v>1.06</v>
+      </c>
+      <c r="AD13">
+        <v>2.56</v>
+      </c>
+      <c r="AE13">
+        <v>1.51</v>
+      </c>
+      <c r="AF13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG13">
+        <v>3.1</v>
+      </c>
+      <c r="AH13">
+        <v>1.28</v>
+      </c>
+      <c r="AI13">
+        <v>3.18</v>
+      </c>
+      <c r="AJ13">
+        <v>1.6</v>
+      </c>
+      <c r="AK13">
         <v>2.2</v>
       </c>
-      <c r="AC13">
-        <v>1.13</v>
-      </c>
-      <c r="AD13">
-        <v>3.33</v>
-      </c>
-      <c r="AE13">
-        <v>1.08</v>
-      </c>
-      <c r="AF13">
-        <v>15.5</v>
-      </c>
-      <c r="AG13">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AH13">
-        <v>1.2</v>
-      </c>
-      <c r="AI13">
-        <v>3.84</v>
-      </c>
-      <c r="AJ13">
-        <v>1.39</v>
-      </c>
-      <c r="AK13">
-        <v>2.67</v>
-      </c>
       <c r="AL13">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AM13">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="AN13">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="AO13">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="AP13">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="AQ13">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2449,13 +2449,13 @@
         <v>1.44</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="K14">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="L14">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="M14">
         <v>1.17</v>
@@ -2497,10 +2497,10 @@
         <v>1.04</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AA14">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AB14">
         <v>1.45</v>
@@ -2571,22 +2571,22 @@
         <v>102</v>
       </c>
       <c r="G15">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H15">
         <v>2.2</v>
       </c>
       <c r="I15">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J15">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="K15">
         <v>3.6</v>
       </c>
       <c r="L15">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>1.36</v>
@@ -2607,16 +2607,16 @@
         <v>3.73</v>
       </c>
       <c r="S15">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U15">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W15">
         <v>1.15</v>
@@ -2628,10 +2628,10 @@
         <v>2.1</v>
       </c>
       <c r="Z15">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AB15">
         <v>1.39</v>
@@ -2643,13 +2643,13 @@
         <v>3</v>
       </c>
       <c r="AE15">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AF15">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG15">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="AH15">
         <v>1.19</v>
@@ -2711,13 +2711,13 @@
         <v>3.25</v>
       </c>
       <c r="J16">
-        <v>2.63</v>
+        <v>2.71</v>
       </c>
       <c r="K16">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L16">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="M16">
         <v>1.4</v>
@@ -2738,10 +2738,10 @@
         <v>3.5</v>
       </c>
       <c r="S16">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U16">
         <v>1.75</v>
@@ -2759,10 +2759,10 @@
         <v>1.53</v>
       </c>
       <c r="Z16">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AA16">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB16">
         <v>1.27</v>
@@ -2842,13 +2842,13 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="K17">
-        <v>3.9</v>
+        <v>3.63</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>4.12</v>
       </c>
       <c r="M17">
         <v>1.29</v>
@@ -2869,10 +2869,10 @@
         <v>5</v>
       </c>
       <c r="S17">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="T17">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="U17">
         <v>1.53</v>
@@ -2890,10 +2890,10 @@
         <v>2</v>
       </c>
       <c r="Z17">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AA17">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AB17">
         <v>1.81</v>
@@ -2973,13 +2973,13 @@
         <v>3.8</v>
       </c>
       <c r="J18">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>3.67</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.43</v>
       </c>
       <c r="M18">
         <v>1.33</v>
@@ -3000,10 +3000,10 @@
         <v>3.75</v>
       </c>
       <c r="S18">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="T18">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="U18">
         <v>1.62</v>
@@ -3021,10 +3021,10 @@
         <v>1.75</v>
       </c>
       <c r="Z18">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AB18">
         <v>1.49</v>
@@ -3104,13 +3104,13 @@
         <v>2.6</v>
       </c>
       <c r="J19">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="K19">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="M19">
         <v>1.36</v>
@@ -3131,10 +3131,10 @@
         <v>3.75</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U19">
         <v>1.67</v>
@@ -3152,10 +3152,10 @@
         <v>1.28</v>
       </c>
       <c r="Z19">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AA19">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AB19">
         <v>1.34</v>
@@ -3235,13 +3235,13 @@
         <v>4.33</v>
       </c>
       <c r="J20">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="L20">
-        <v>3.9</v>
+        <v>4.12</v>
       </c>
       <c r="M20">
         <v>1.33</v>
@@ -3262,10 +3262,10 @@
         <v>4.25</v>
       </c>
       <c r="S20">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="T20">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U20">
         <v>1.62</v>
@@ -3283,10 +3283,10 @@
         <v>1.97</v>
       </c>
       <c r="Z20">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AA20">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AB20">
         <v>1.51</v>
@@ -3366,13 +3366,13 @@
         <v>3</v>
       </c>
       <c r="J21">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="K21">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L21">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M21">
         <v>1.33</v>
@@ -3393,10 +3393,10 @@
         <v>4.05</v>
       </c>
       <c r="S21">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T21">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="U21">
         <v>1.62</v>
@@ -3414,7 +3414,7 @@
         <v>1.43</v>
       </c>
       <c r="Z21">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA21">
         <v>1.13</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2">
         <v>45384</v>
@@ -3479,7 +3479,7 @@
         <v>64</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>86</v>
@@ -3488,120 +3488,120 @@
         <v>109</v>
       </c>
       <c r="G22">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I22">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J22">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="K22">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="L22">
+        <v>2.94</v>
+      </c>
+      <c r="M22">
+        <v>1.3</v>
+      </c>
+      <c r="N22">
         <v>3.4</v>
       </c>
-      <c r="M22">
-        <v>1.44</v>
-      </c>
-      <c r="N22">
-        <v>2.63</v>
-      </c>
       <c r="O22">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P22">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Q22">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="R22">
-        <v>3.2</v>
+        <v>4.45</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U22">
+        <v>1.53</v>
+      </c>
+      <c r="V22">
+        <v>2.38</v>
+      </c>
+      <c r="W22">
+        <v>1.52</v>
+      </c>
+      <c r="X22">
+        <v>1.22</v>
+      </c>
+      <c r="Y22">
+        <v>1.58</v>
+      </c>
+      <c r="Z22">
+        <v>1.79</v>
+      </c>
+      <c r="AA22">
+        <v>1.14</v>
+      </c>
+      <c r="AB22">
         <v>1.8</v>
       </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
-      <c r="W22">
-        <v>1.35</v>
-      </c>
-      <c r="X22">
+      <c r="AC22">
+        <v>1.41</v>
+      </c>
+      <c r="AD22">
+        <v>3.21</v>
+      </c>
+      <c r="AE22">
+        <v>1.86</v>
+      </c>
+      <c r="AF22">
+        <v>7.5</v>
+      </c>
+      <c r="AG22">
+        <v>2.23</v>
+      </c>
+      <c r="AH22">
+        <v>1.25</v>
+      </c>
+      <c r="AI22">
+        <v>3.25</v>
+      </c>
+      <c r="AJ22">
+        <v>1.48</v>
+      </c>
+      <c r="AK22">
+        <v>2.35</v>
+      </c>
+      <c r="AL22">
+        <v>1.84</v>
+      </c>
+      <c r="AM22">
+        <v>1.85</v>
+      </c>
+      <c r="AN22">
+        <v>2.33</v>
+      </c>
+      <c r="AO22">
+        <v>1.5</v>
+      </c>
+      <c r="AP22">
+        <v>3.05</v>
+      </c>
+      <c r="AQ22">
         <v>1.28</v>
-      </c>
-      <c r="Y22">
-        <v>1.65</v>
-      </c>
-      <c r="Z22">
-        <v>2.26</v>
-      </c>
-      <c r="AA22">
-        <v>1.9</v>
-      </c>
-      <c r="AB22">
-        <v>1.54</v>
-      </c>
-      <c r="AC22">
-        <v>1.36</v>
-      </c>
-      <c r="AD22">
-        <v>2.9</v>
-      </c>
-      <c r="AE22">
-        <v>1.83</v>
-      </c>
-      <c r="AF22">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG22">
-        <v>2.32</v>
-      </c>
-      <c r="AH22">
-        <v>1.18</v>
-      </c>
-      <c r="AI22">
-        <v>4.2</v>
-      </c>
-      <c r="AJ22">
-        <v>1.33</v>
-      </c>
-      <c r="AK22">
-        <v>2.93</v>
-      </c>
-      <c r="AL22">
-        <v>1.6</v>
-      </c>
-      <c r="AM22">
-        <v>2.19</v>
-      </c>
-      <c r="AN22">
-        <v>2.02</v>
-      </c>
-      <c r="AO22">
-        <v>1.74</v>
-      </c>
-      <c r="AP22">
-        <v>2.62</v>
-      </c>
-      <c r="AQ22">
-        <v>1.43</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2">
         <v>45384</v>
@@ -3610,7 +3610,7 @@
         <v>64</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
         <v>87</v>
@@ -3619,115 +3619,115 @@
         <v>110</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H23">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I23">
+        <v>3.6</v>
+      </c>
+      <c r="J23">
+        <v>2.07</v>
+      </c>
+      <c r="K23">
+        <v>3.18</v>
+      </c>
+      <c r="L23">
+        <v>3.42</v>
+      </c>
+      <c r="M23">
+        <v>1.44</v>
+      </c>
+      <c r="N23">
+        <v>2.63</v>
+      </c>
+      <c r="O23">
+        <v>1.06</v>
+      </c>
+      <c r="P23">
+        <v>9.5</v>
+      </c>
+      <c r="Q23">
+        <v>1.36</v>
+      </c>
+      <c r="R23">
         <v>3.2</v>
       </c>
-      <c r="J23">
-        <v>2.38</v>
-      </c>
-      <c r="K23">
-        <v>3.75</v>
-      </c>
-      <c r="L23">
-        <v>2.7</v>
-      </c>
-      <c r="M23">
-        <v>1.3</v>
-      </c>
-      <c r="N23">
-        <v>3.4</v>
-      </c>
-      <c r="O23">
-        <v>1.02</v>
-      </c>
-      <c r="P23">
-        <v>17</v>
-      </c>
-      <c r="Q23">
-        <v>1.19</v>
-      </c>
-      <c r="R23">
-        <v>4.45</v>
-      </c>
       <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>1.75</v>
+      </c>
+      <c r="U23">
+        <v>1.8</v>
+      </c>
+      <c r="V23">
+        <v>1.95</v>
+      </c>
+      <c r="W23">
+        <v>1.35</v>
+      </c>
+      <c r="X23">
+        <v>1.28</v>
+      </c>
+      <c r="Y23">
         <v>1.65</v>
       </c>
-      <c r="T23">
-        <v>2.15</v>
-      </c>
-      <c r="U23">
-        <v>1.53</v>
-      </c>
-      <c r="V23">
-        <v>2.38</v>
-      </c>
-      <c r="W23">
-        <v>1.52</v>
-      </c>
-      <c r="X23">
-        <v>1.22</v>
-      </c>
-      <c r="Y23">
-        <v>1.58</v>
-      </c>
       <c r="Z23">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="AA23">
-        <v>1.15</v>
+        <v>1.86</v>
       </c>
       <c r="AB23">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="AC23">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AD23">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="AE23">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AF23">
-        <v>7.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG23">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="AH23">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AI23">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="AJ23">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AK23">
-        <v>2.35</v>
+        <v>2.93</v>
       </c>
       <c r="AL23">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="AM23">
-        <v>1.85</v>
+        <v>2.19</v>
       </c>
       <c r="AN23">
-        <v>2.33</v>
+        <v>2.02</v>
       </c>
       <c r="AO23">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AP23">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="AQ23">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3759,13 +3759,13 @@
         <v>2.6</v>
       </c>
       <c r="J24">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K24">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="L24">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="M24">
         <v>1.22</v>
@@ -3807,10 +3807,10 @@
         <v>1.38</v>
       </c>
       <c r="Z24">
+        <v>1.56</v>
+      </c>
+      <c r="AA24">
         <v>1.6</v>
-      </c>
-      <c r="AA24">
-        <v>1.64</v>
       </c>
       <c r="AB24">
         <v>1.33</v>
